--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3513.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3513.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3513</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sarfaraz Ahmed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/11/2007</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2758</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/01/2008</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2779</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/02/2008</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2781</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2824</t>
+          <t>2824</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>26/06/2008</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2829</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2835</t>
+          <t>2835</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/07/2008</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2842</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -836,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>04/07/2008</t>
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2845</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3078</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3348</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3349</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3350</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>15/03/2012</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3396</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1458,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>07/06/2012</t>
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1557,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1600,7 +1656,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>18/06/2012</t>
@@ -1608,7 +1663,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1660,7 +1715,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3546</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1700,7 +1755,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>29/08/2013</t>
@@ -1708,7 +1762,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3549</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1760,7 +1814,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3550</t>
+          <t>3550</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1812,7 +1866,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1864,7 +1918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1916,7 +1970,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,7 +2022,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2020,7 +2074,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2072,7 +2126,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2176,7 +2230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2228,7 +2282,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2280,7 +2334,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2332,7 +2386,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3776</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2384,7 +2438,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2436,7 +2490,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2488,7 +2542,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2540,7 +2594,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2580,7 +2634,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -2588,7 +2641,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2640,7 +2693,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2692,7 +2745,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2732,7 +2785,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>11/07/2015</t>
@@ -2740,7 +2792,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2792,7 +2844,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2844,7 +2896,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2896,7 +2948,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2948,7 +3000,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3000,7 +3052,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3052,7 +3104,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3092,7 +3144,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -3100,7 +3151,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3140,7 +3191,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>11/11/2015</t>
@@ -3148,7 +3198,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3200,7 +3250,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3252,7 +3302,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3304,7 +3354,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3356,7 +3406,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3408,7 +3458,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3460,7 +3510,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3512,7 +3562,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3564,7 +3614,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3616,7 +3666,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3668,7 +3718,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3720,7 +3770,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3772,7 +3822,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3824,7 +3874,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3876,7 +3926,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3928,7 +3978,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3980,7 +4030,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4032,7 +4082,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4084,7 +4134,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4124,7 +4174,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -4132,7 +4181,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4184,7 +4233,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4224,7 +4273,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4232,7 +4280,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4272,7 +4320,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -4280,7 +4327,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4332,7 +4379,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4384,7 +4431,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4424,7 +4471,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -4432,7 +4478,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4472,7 +4518,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -4480,7 +4525,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4520,7 +4565,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -4528,7 +4572,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4580,7 +4624,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4632,7 +4676,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4684,7 +4728,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4736,7 +4780,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4788,7 +4832,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4840,7 +4884,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4880,7 +4924,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -4888,7 +4931,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4928,7 +4971,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -4936,7 +4978,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4976,7 +5018,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -4984,7 +5025,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5036,7 +5077,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5076,7 +5117,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -5084,7 +5124,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5136,7 +5176,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5188,7 +5228,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5240,7 +5280,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5292,7 +5332,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5344,7 +5384,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5396,7 +5436,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5448,7 +5488,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5500,7 +5540,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5552,7 +5592,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5604,7 +5644,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5644,7 +5684,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -5652,7 +5691,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5704,7 +5743,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5756,7 +5795,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5808,7 +5847,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5860,7 +5899,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5912,7 +5951,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5964,7 +6003,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6016,7 +6055,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6068,7 +6107,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6120,7 +6159,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6172,7 +6211,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6224,7 +6263,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6276,7 +6315,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6328,7 +6367,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6380,7 +6419,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6432,7 +6471,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6471,7 +6510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6493,7 +6532,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6530,7 +6569,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6556,6 +6595,587 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>0/15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.20%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11.36%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.18%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.66%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15.04%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.66%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.83%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.06%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3513.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3513.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3513.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3513.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/11/2007</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/01/2008</t>
@@ -651,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/02/2008</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>26/06/2008</t>
@@ -849,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/07/2008</t>
@@ -896,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>04/07/2008</t>
@@ -1359,6 +1364,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>15/03/2012</t>
@@ -1458,6 +1464,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>07/06/2012</t>
@@ -1557,6 +1564,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -1656,6 +1664,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>18/06/2012</t>
@@ -1755,6 +1764,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>29/08/2013</t>
@@ -2634,6 +2644,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -2785,6 +2796,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>11/07/2015</t>
@@ -3144,6 +3156,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -3191,6 +3204,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>11/11/2015</t>
@@ -4174,6 +4188,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -4273,6 +4288,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4320,6 +4336,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -4471,6 +4488,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -4518,6 +4536,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -4565,6 +4584,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -4924,6 +4944,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -4971,6 +4992,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -5018,6 +5040,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -5117,6 +5140,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -5684,6 +5708,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -6601,585 +6626,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.37%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.20%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.89%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11.36%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.18%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>32.66%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.62%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>15.04%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.66%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.83%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.95%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.62%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.06%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>